--- a/IPL/Data/exp/pstats_v01_Mumbai Indians.xlsx
+++ b/IPL/Data/exp/pstats_v01_Mumbai Indians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:CI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,300 +496,375 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>tr_mid</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>tr_dth</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tout_pp</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tout_mid</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tout_dth</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tout_pace</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>tout_spin</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>tbf_pp</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tout_pp</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>tr_mid</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>tbf_mid</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>tout_mid</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>tr_dth</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>tbf_dth</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tout_dth</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>f.cp.pts30</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>f.cp.pts50</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>f.cp.pts100</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>f.cp.pts0</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>tbb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>tbrc</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt_powp</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt_mid</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt_dth</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>tbov.powp</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>tbov.mid</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>tbov.dth</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>tbrc_powp</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>tbrc_mid</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>tbrc_dth</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt_powp</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt_mid</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt_dth</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>bat_tm</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>bat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>tr.G05</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>tr.G12</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>tr.G16</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tr.G22</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>tr.G25</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>tr.G31</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>tr.G35</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>tr.G42</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>tr.G46</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>bow_tm</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>bow</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G05</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G12</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G16</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G22</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G25</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G31</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G35</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G42</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>tbwkt.G46</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>tr%.pp</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>tr%.mid</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>tr%.dth</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>tr%.pace</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>tr%.spin</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt%.pp</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt%.mid</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt%.dth</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt%.lhb</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt%.rhb</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>tbov%.pp</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>tbov%.mid</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>tbov%.dth</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>tbov%.rhb</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>tbov%.lhb</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>tinn</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>tr</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>tinn</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>tbov%.pp</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>tbov%.mid</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>tbov%.dth</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt%.pp</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt%.mid</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>tbwkt%.dth</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>tr_pace</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>tr_spin</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>tout</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>tbov</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>tbov_rhb</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>tbov_lhb</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>tbwkt</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>tbov</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt_rhb</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>tbwkt_lhb</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>tr_tinn_ratio</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>4xtbwkt_tbov_ratio</t>
         </is>
@@ -849,191 +924,236 @@
         <v>104</v>
       </c>
       <c r="M2" t="n">
+        <v>118</v>
+      </c>
+      <c r="N2" t="n">
+        <v>44</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
         <v>73</v>
       </c>
-      <c r="N2" t="n">
+      <c r="U2" t="n">
+        <v>87</v>
+      </c>
+      <c r="V2" t="n">
+        <v>20</v>
+      </c>
+      <c r="W2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>239</v>
+      </c>
+      <c r="AC2" t="n">
         <v>2</v>
       </c>
-      <c r="O2" t="n">
-        <v>118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>49</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>C Green</t>
+        </is>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU2" t="n">
         <v>44</v>
       </c>
-      <c r="S2" t="n">
-        <v>20</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>16</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>239</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>84</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>106</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>49</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>C Green</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
         <v>2</v>
       </c>
-      <c r="AH2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>C Green</t>
-        </is>
-      </c>
-      <c r="AL2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>39</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>44</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>17</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>64</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>C Green</t>
-        </is>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>39</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>44</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>266</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>9</v>
-      </c>
       <c r="BK2" t="n">
+        <v>58</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>42</v>
+      </c>
+      <c r="BM2" t="n">
         <v>40</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>48</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>12</v>
       </c>
       <c r="BN2" t="n">
         <v>40</v>
       </c>
       <c r="BO2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BP2" t="n">
         <v>20</v>
       </c>
       <c r="BQ2" t="n">
+        <v>80</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>40</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>48</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>84</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>72</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>266</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>153</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>113</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>21</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE2" t="n">
         <v>5</v>
       </c>
-      <c r="BR2" t="n">
-        <v>25</v>
-      </c>
-      <c r="BS2" t="n">
+      <c r="CF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH2" t="n">
         <v>30</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CI2" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -1075,41 +1195,41 @@
         <v>195</v>
       </c>
       <c r="M3" t="n">
+        <v>91</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="n">
         <v>139</v>
       </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>91</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
         <v>69</v>
       </c>
-      <c r="Q3" t="n">
-        <v>6</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
         <v>20</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>16</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
@@ -1143,45 +1263,49 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Ishan Kishan</t>
         </is>
       </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
         <v>10</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AO3" t="n">
         <v>32</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AP3" t="n">
         <v>31</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>58</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AR3" t="n">
         <v>38</v>
       </c>
-      <c r="AQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="n">
         <v>13</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AU3" t="n">
         <v>28</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AV3" t="n">
         <v>75</v>
       </c>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
@@ -1191,37 +1315,70 @@
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="n">
         <v>68</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BI3" t="n">
         <v>32</v>
       </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>286</v>
-      </c>
       <c r="BJ3" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>65</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>35</v>
+      </c>
       <c r="BM3" t="inlineStr"/>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="n">
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>286</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>187</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>99</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
         <v>32</v>
       </c>
-      <c r="BT3" t="inlineStr"/>
+      <c r="CI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1277,47 +1434,47 @@
         <v>138</v>
       </c>
       <c r="M4" t="n">
+        <v>42</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
         <v>110</v>
       </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>42</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>32</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="V4" t="n">
         <v>5</v>
       </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>8</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>8</v>
       </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
         <v>-2</v>
       </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1345,45 +1502,49 @@
       <c r="AI4" t="n">
         <v>0</v>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>RG Sharma</t>
         </is>
       </c>
-      <c r="AL4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
         <v>21</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AP4" t="n">
         <v>65</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>20</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AR4" t="n">
         <v>28</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AS4" t="n">
         <v>44</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AT4" t="n">
         <v>2</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AU4" t="n">
         <v>3</v>
       </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
@@ -1393,37 +1554,70 @@
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="n">
         <v>75</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BI4" t="n">
         <v>23</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BJ4" t="n">
         <v>2</v>
       </c>
-      <c r="BI4" t="n">
-        <v>184</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
+      <c r="BK4" t="n">
+        <v>58</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>42</v>
+      </c>
       <c r="BM4" t="inlineStr"/>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="n">
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>184</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>107</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>77</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
         <v>20</v>
       </c>
-      <c r="BT4" t="inlineStr"/>
+      <c r="CI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1479,47 +1673,47 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>29</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>12</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="V5" t="n">
         <v>11</v>
       </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>4</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
         <v>-2</v>
       </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1547,33 +1741,37 @@
       <c r="AI5" t="n">
         <v>0</v>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>N Wadhera</t>
         </is>
       </c>
-      <c r="AL5" t="n">
+      <c r="AN5" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="n">
-        <v>6</v>
-      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
         <v>40</v>
       </c>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
       <c r="AW5" t="inlineStr"/>
@@ -1585,37 +1783,70 @@
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
         <v>82</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BJ5" t="n">
         <v>18</v>
       </c>
-      <c r="BI5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
+      <c r="BK5" t="n">
+        <v>82</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>18</v>
+      </c>
       <c r="BM5" t="inlineStr"/>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="n">
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>55</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
         <v>17</v>
       </c>
-      <c r="BT5" t="inlineStr"/>
+      <c r="CI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1671,113 +1902,117 @@
         <v>10</v>
       </c>
       <c r="M6" t="n">
+        <v>245</v>
+      </c>
+      <c r="N6" t="n">
         <v>12</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>12</v>
+      </c>
+      <c r="U6" t="n">
         <v>130</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>16</v>
+      </c>
+      <c r="X6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>SA Yadav</t>
+        </is>
+      </c>
+      <c r="AN6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR6" t="n">
         <v>7</v>
       </c>
-      <c r="R6" t="n">
-        <v>12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>16</v>
-      </c>
-      <c r="V6" t="n">
-        <v>24</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>SA Yadav</t>
-        </is>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>43</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ6" t="n">
+      <c r="AS6" t="n">
         <v>57</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AT6" t="n">
         <v>23</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AU6" t="n">
         <v>55</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AV6" t="n">
         <v>66</v>
       </c>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
@@ -1787,37 +2022,70 @@
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
       <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>92</v>
-      </c>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="n">
         <v>4</v>
       </c>
       <c r="BI6" t="n">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="BJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>57</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>43</v>
+      </c>
       <c r="BM6" t="inlineStr"/>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="n">
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>267</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>153</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>114</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
         <v>30</v>
       </c>
-      <c r="BT6" t="inlineStr"/>
+      <c r="CI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1873,90 +2141,94 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>T Stubbs</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>5</v>
       </c>
-      <c r="P7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>T Stubbs</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
@@ -1973,37 +2245,70 @@
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
         <v>100</v>
       </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>60</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>40</v>
+      </c>
       <c r="BM7" t="inlineStr"/>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS7" t="n">
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="n">
         <v>5</v>
       </c>
-      <c r="BT7" t="inlineStr"/>
+      <c r="BY7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="CI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2059,47 +2364,47 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="O8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>44</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>130</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="V8" t="n">
         <v>62</v>
       </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>8</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
         <v>-2</v>
       </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -2127,45 +2432,49 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>TH David</t>
         </is>
       </c>
-      <c r="AL8" t="n">
+      <c r="AN8" t="n">
         <v>4</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AO8" t="n">
         <v>31</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
         <v>13</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>24</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AR8" t="n">
         <v>16</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AS8" t="n">
         <v>25</v>
       </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
         <v>45</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AV8" t="n">
         <v>19</v>
       </c>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
@@ -2175,37 +2484,70 @@
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
         <v>27</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BJ8" t="n">
         <v>73</v>
       </c>
-      <c r="BI8" t="n">
-        <v>177</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
+      <c r="BK8" t="n">
+        <v>86</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>14</v>
+      </c>
       <c r="BM8" t="inlineStr"/>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>177</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>152</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
         <v>20</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
+      <c r="CI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2261,152 +2603,152 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>148</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2</v>
       </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Arshad Khan</t>
+        </is>
+      </c>
+      <c r="AN9" t="n">
         <v>15</v>
       </c>
-      <c r="S9" t="n">
-        <v>9</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>148</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>63</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>56</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
+      <c r="AO9" t="n">
         <v>2</v>
       </c>
-      <c r="AI9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Arshad Khan</t>
-        </is>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr">
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
+      <c r="AX9" t="inlineStr">
         <is>
           <t>Arshad Khan</t>
         </is>
       </c>
-      <c r="AW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
       <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
       <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>3</v>
       </c>
-      <c r="BE9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
       <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
         <v>12</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BJ9" t="n">
         <v>88</v>
       </c>
-      <c r="BI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>5</v>
-      </c>
       <c r="BK9" t="n">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="BL9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="BM9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="BN9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BO9" t="n">
         <v>40</v>
@@ -2415,15 +2757,60 @@
         <v>40</v>
       </c>
       <c r="BQ9" t="n">
+        <v>60</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>43</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>21</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>36</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>36</v>
+      </c>
+      <c r="BW9" t="n">
         <v>5</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BX9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB9" t="n">
         <v>14</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>5</v>
+      </c>
+      <c r="CF9" t="n">
         <v>3</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI9" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -2484,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2496,20 +2883,20 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>2</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
@@ -2517,112 +2904,112 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>96</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
         <v>154</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
         <v>6</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AG10" t="n">
         <v>6</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AH10" t="n">
         <v>4</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AI10" t="n">
         <v>51</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AJ10" t="n">
         <v>46</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
         <v>57</v>
       </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>JC Archer</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="AS10" t="n">
+        <v>1</v>
+      </c>
       <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr">
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>JC Archer</t>
         </is>
       </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="n">
-        <v>1</v>
-      </c>
+      <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="n">
         <v>1</v>
       </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" t="n">
         <v>0</v>
       </c>
       <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
         <v>100</v>
       </c>
-      <c r="BI10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>4</v>
-      </c>
       <c r="BK10" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="BL10" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="BM10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BO10" t="n">
         <v>50</v>
@@ -2631,15 +3018,60 @@
         <v>50</v>
       </c>
       <c r="BQ10" t="n">
+        <v>50</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>38</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>25</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>56</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>15</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE10" t="n">
         <v>2</v>
       </c>
-      <c r="BR10" t="n">
-        <v>16</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
+      <c r="CF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2697,124 +3129,124 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>8</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="V11" t="n">
+        <v>10</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>253</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
         <v>6</v>
       </c>
-      <c r="S11" t="n">
-        <v>10</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>253</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AG11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>49</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
         <v>204</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>PP Chawla</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="n">
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
         <v>5</v>
       </c>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="n">
         <v>18</v>
       </c>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr">
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AX11" t="inlineStr">
         <is>
           <t>PP Chawla</t>
         </is>
       </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1</v>
-      </c>
       <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="n">
         <v>3</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>2</v>
-      </c>
       <c r="BB11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC11" t="n">
         <v>2</v>
@@ -2826,48 +3258,93 @@
         <v>2</v>
       </c>
       <c r="BF11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="n">
         <v>74</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BJ11" t="n">
         <v>26</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BK11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>93</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>73</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>83</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>94</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>57</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX11" t="n">
         <v>23</v>
       </c>
-      <c r="BJ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>83</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>7</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>93</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
+      <c r="BY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>35</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>33</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>20</v>
+      </c>
+      <c r="CE11" t="n">
         <v>15</v>
       </c>
-      <c r="BR11" t="n">
-        <v>35</v>
-      </c>
-      <c r="BS11" t="n">
+      <c r="CF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH11" t="n">
         <v>3</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="CI11" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -2923,169 +3400,210 @@
         <v>7</v>
       </c>
       <c r="M12" t="n">
+        <v>180</v>
+      </c>
+      <c r="N12" t="n">
+        <v>87</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>180</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
         <v>137</v>
       </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>87</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="V12" t="n">
         <v>47</v>
       </c>
-      <c r="T12" t="n">
+      <c r="W12" t="n">
+        <v>16</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Tilak Varma</t>
+        </is>
+      </c>
+      <c r="AN12" t="n">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2</v>
       </c>
-      <c r="U12" t="n">
-        <v>16</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
+      <c r="AU12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW12" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AX12" t="inlineStr">
         <is>
           <t>Tilak Varma</t>
         </is>
       </c>
-      <c r="AL12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>Tilak Varma</t>
-        </is>
-      </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AY12" t="inlineStr"/>
       <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
       <c r="BB12" t="inlineStr"/>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="n">
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="n">
         <v>3</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BI12" t="n">
         <v>66</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BJ12" t="n">
         <v>32</v>
       </c>
-      <c r="BI12" t="n">
-        <v>274</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>9</v>
-      </c>
       <c r="BK12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="BL12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="BM12" t="inlineStr"/>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
       <c r="BP12" t="inlineStr"/>
-      <c r="BQ12" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>274</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>97</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
         <v>30</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="CI12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,171 +3659,216 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>141</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>127</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Mumbai Indians</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>HR Shokeen</t>
+        </is>
+      </c>
+      <c r="AN13" t="n">
         <v>5</v>
       </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="AO13" t="n">
         <v>18</v>
       </c>
-      <c r="S13" t="n">
-        <v>16</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>141</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>127</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>Mumbai Indians</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>HR Shokeen</t>
-        </is>
-      </c>
-      <c r="AL13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr">
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
+      <c r="AX13" t="inlineStr">
         <is>
           <t>HR Shokeen</t>
         </is>
       </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
       <c r="AY13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB13" t="n">
         <v>2</v>
       </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
       <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="n">
         <v>22</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BJ13" t="n">
         <v>78</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BK13" t="n">
+        <v>100</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>33</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>33</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>87</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>60</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>80</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX13" t="n">
         <v>23</v>
       </c>
-      <c r="BJ13" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>13</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>87</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>33</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ13" t="n">
+      <c r="BY13" t="n">
+        <v>23</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE13" t="n">
         <v>3</v>
       </c>
-      <c r="BR13" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS13" t="n">
+      <c r="CF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH13" t="n">
         <v>4</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="CI13" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -3364,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -3376,154 +3939,199 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>4</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AC14" t="n">
         <v>3</v>
       </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF14" t="n">
         <v>12</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AG14" t="n">
         <v>2</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AH14" t="n">
         <v>6</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AI14" t="n">
         <v>94</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AJ14" t="n">
         <v>22</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AK14" t="n">
         <v>74</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>JP Behrendorff</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="n">
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="n">
         <v>3</v>
       </c>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr">
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
+      <c r="AX14" t="inlineStr">
         <is>
           <t>JP Behrendorff</t>
         </is>
       </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>1</v>
-      </c>
       <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA14" t="n">
         <v>4</v>
       </c>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="n">
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="n">
         <v>3</v>
       </c>
-      <c r="BB14" t="n">
+      <c r="BD14" t="n">
         <v>2</v>
       </c>
-      <c r="BC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ14" t="n">
         <v>100</v>
       </c>
-      <c r="BI14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>6</v>
-      </c>
       <c r="BK14" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BL14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BN14" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="BP14" t="n">
         <v>73</v>
       </c>
       <c r="BQ14" t="n">
+        <v>27</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>60</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>30</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>90</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>45</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE14" t="n">
         <v>11</v>
       </c>
-      <c r="BR14" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
+      <c r="CF14" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -3597,143 +4205,184 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>2</v>
       </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
         <v>-2</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AA15" t="n">
         <v>118</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AB15" t="n">
         <v>198</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF15" t="n">
         <v>4</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AG15" t="n">
         <v>8</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AH15" t="n">
         <v>8</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AI15" t="n">
         <v>41</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
         <v>73</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AK15" t="n">
         <v>84</v>
       </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>RP Meredith</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr">
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
+      <c r="AX15" t="inlineStr">
         <is>
           <t>RP Meredith</t>
         </is>
       </c>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="n">
         <v>2</v>
       </c>
-      <c r="BB15" t="inlineStr"/>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
       <c r="BC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1</v>
+      </c>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>40</v>
-      </c>
+      <c r="BI15" t="inlineStr"/>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="inlineStr"/>
+      <c r="BL15" t="inlineStr"/>
       <c r="BM15" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BO15" t="n">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="BP15" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="BQ15" t="n">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="BR15" t="n">
         <v>20</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BT15" t="n">
+        <v>40</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>80</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>70</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>16</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>7</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -3792,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -3801,23 +4450,23 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>9</v>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
@@ -3825,129 +4474,174 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
         <v>59</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AB16" t="n">
         <v>83</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AG16" t="n">
         <v>2</v>
       </c>
-      <c r="AC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
         <v>40</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AJ16" t="n">
         <v>40</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AK16" t="n">
         <v>3</v>
       </c>
-      <c r="AG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
+      <c r="AL16" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>Arjun Tendulkar</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="n">
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
         <v>13</v>
       </c>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr">
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV16" t="inlineStr">
+      <c r="AX16" t="inlineStr">
         <is>
           <t>Arjun Tendulkar</t>
         </is>
       </c>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
         <v>2</v>
       </c>
-      <c r="BB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>0</v>
-      </c>
+      <c r="BD16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ16" t="n">
         <v>100</v>
       </c>
-      <c r="BI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>4</v>
-      </c>
       <c r="BK16" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BL16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="BN16" t="n">
         <v>25</v>
       </c>
       <c r="BO16" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="BP16" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BQ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>20</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>80</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>30</v>
+      </c>
+      <c r="BW16" t="n">
         <v>4</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB16" t="n">
         <v>10</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="CC16" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD16" t="n">
         <v>3</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="CE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI16" t="n">
         <v>1.6</v>
       </c>
     </row>
@@ -4037,40 +4731,44 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
         <v>78</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AB17" t="n">
         <v>98</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
         <v>12</v>
       </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>93</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AK17" t="n">
         <v>5</v>
       </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
@@ -4080,70 +4778,107 @@
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr">
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV17" t="inlineStr">
+      <c r="AX17" t="inlineStr">
         <is>
           <t>K Kartikeya</t>
         </is>
       </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="n">
-        <v>1</v>
-      </c>
       <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
+      <c r="AZ17" t="n">
+        <v>1</v>
+      </c>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>0</v>
-      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
       <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ17" t="n">
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>92</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>54</v>
+      </c>
+      <c r="BW17" t="n">
         <v>4</v>
       </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>92</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>100</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CE17" t="n">
         <v>2</v>
       </c>
-      <c r="BR17" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
+      <c r="CF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -4209,40 +4944,44 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
         <v>18</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AB18" t="n">
         <v>36</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1</v>
-      </c>
       <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2</v>
       </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AK18" t="n">
         <v>21</v>
       </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
@@ -4252,58 +4991,91 @@
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr">
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV18" t="inlineStr">
+      <c r="AX18" t="inlineStr">
         <is>
           <t>Akash Madhwal</t>
         </is>
       </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
-      <c r="BG18" t="inlineStr"/>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>33</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>67</v>
-      </c>
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="inlineStr"/>
+      <c r="BM18" t="inlineStr"/>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
       <c r="BP18" t="inlineStr"/>
-      <c r="BQ18" t="n">
-        <v>0</v>
-      </c>
+      <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>33</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>100</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB18" t="n">
         <v>3</v>
       </c>
-      <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
+      <c r="CC18" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4393,40 +5165,44 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
         <v>24</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
         <v>49</v>
       </c>
-      <c r="AA19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
       <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="n">
         <v>2</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AI19" t="n">
         <v>15</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AJ19" t="n">
         <v>13</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AK19" t="n">
         <v>21</v>
       </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
@@ -4436,64 +5212,101 @@
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr">
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
         <is>
           <t>Mumbai Indians</t>
         </is>
       </c>
-      <c r="AV19" t="inlineStr">
+      <c r="AX19" t="inlineStr">
         <is>
           <t>D Jansen</t>
         </is>
       </c>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
+      <c r="BB19" t="n">
+        <v>1</v>
+      </c>
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>25</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>25</v>
-      </c>
+      <c r="BI19" t="inlineStr"/>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="inlineStr"/>
+      <c r="BL19" t="inlineStr"/>
       <c r="BM19" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BN19" t="n">
         <v>0</v>
       </c>
       <c r="BO19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BP19" t="n">
         <v>100</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR19" t="n">
+        <v>25</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>25</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>100</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
         <v>4</v>
       </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
+      <c r="CC19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
         <v>1</v>
       </c>
     </row>
